--- a/Plots/Plots4Mohit/Pancreas_DE_analysis_NegC.xlsx
+++ b/Plots/Plots4Mohit/Pancreas_DE_analysis_NegC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>gene_name</t>
   </si>
@@ -26,235 +26,277 @@
     <t>logpval</t>
   </si>
   <si>
-    <t>ELMO2</t>
+    <t>AMFR</t>
+  </si>
+  <si>
+    <t>EFCAB11</t>
+  </si>
+  <si>
+    <t>MTF1</t>
+  </si>
+  <si>
+    <t>ABAT</t>
+  </si>
+  <si>
+    <t>ZNF121</t>
+  </si>
+  <si>
+    <t>DCK</t>
+  </si>
+  <si>
+    <t>PELI2</t>
+  </si>
+  <si>
+    <t>UNG</t>
+  </si>
+  <si>
+    <t>EMP1</t>
+  </si>
+  <si>
+    <t>CEL</t>
+  </si>
+  <si>
+    <t>CDH17</t>
+  </si>
+  <si>
+    <t>CLDN10</t>
+  </si>
+  <si>
+    <t>PIK3AP1</t>
+  </si>
+  <si>
+    <t>CYP1B1</t>
+  </si>
+  <si>
+    <t>GPRC5A</t>
+  </si>
+  <si>
+    <t>MOK</t>
+  </si>
+  <si>
+    <t>CYP27A1</t>
+  </si>
+  <si>
+    <t>C17orf89</t>
+  </si>
+  <si>
+    <t>MLEC</t>
+  </si>
+  <si>
+    <t>TRIM45</t>
+  </si>
+  <si>
+    <t>PTX3</t>
+  </si>
+  <si>
+    <t>BABAM1</t>
+  </si>
+  <si>
+    <t>C11orf96</t>
+  </si>
+  <si>
+    <t>TNPO1</t>
+  </si>
+  <si>
+    <t>CYP2U1</t>
+  </si>
+  <si>
+    <t>UBE2A</t>
+  </si>
+  <si>
+    <t>S100A16</t>
+  </si>
+  <si>
+    <t>SFN</t>
+  </si>
+  <si>
+    <t>PEF1</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>MT1F</t>
+  </si>
+  <si>
+    <t>ANPEP</t>
+  </si>
+  <si>
+    <t>LPHN1</t>
+  </si>
+  <si>
+    <t>S100A10</t>
+  </si>
+  <si>
+    <t>OAF</t>
+  </si>
+  <si>
+    <t>ANKRD28</t>
+  </si>
+  <si>
+    <t>TLK1</t>
+  </si>
+  <si>
+    <t>HLF</t>
+  </si>
+  <si>
+    <t>FBXW4P1</t>
+  </si>
+  <si>
+    <t>CYP1A1</t>
+  </si>
+  <si>
+    <t>CDV3</t>
+  </si>
+  <si>
+    <t>NSF</t>
+  </si>
+  <si>
+    <t>FKBP1B</t>
+  </si>
+  <si>
+    <t>BCO2</t>
+  </si>
+  <si>
+    <t>GALNT7</t>
+  </si>
+  <si>
+    <t>MGST1</t>
+  </si>
+  <si>
+    <t>PRG4</t>
+  </si>
+  <si>
+    <t>MEST</t>
+  </si>
+  <si>
+    <t>CYP2E1</t>
+  </si>
+  <si>
+    <t>EDN2</t>
+  </si>
+  <si>
+    <t>CELA2A</t>
+  </si>
+  <si>
+    <t>FAM178A</t>
+  </si>
+  <si>
+    <t>MT1E</t>
+  </si>
+  <si>
+    <t>RBM25</t>
+  </si>
+  <si>
+    <t>SERPING1</t>
+  </si>
+  <si>
+    <t>ANKFY1</t>
+  </si>
+  <si>
+    <t>IGFBP5</t>
+  </si>
+  <si>
+    <t>NHSL1</t>
+  </si>
+  <si>
+    <t>CAV1</t>
+  </si>
+  <si>
+    <t>SNX4</t>
+  </si>
+  <si>
+    <t>CEP152</t>
+  </si>
+  <si>
+    <t>CCDC12</t>
+  </si>
+  <si>
+    <t>PRSS3</t>
+  </si>
+  <si>
+    <t>IPO13</t>
+  </si>
+  <si>
+    <t>DCTN4</t>
+  </si>
+  <si>
+    <t>CADM2</t>
+  </si>
+  <si>
+    <t>MLXIPL</t>
+  </si>
+  <si>
+    <t>RAB6A</t>
+  </si>
+  <si>
+    <t>TMEM135</t>
+  </si>
+  <si>
+    <t>FGL1</t>
+  </si>
+  <si>
+    <t>ANGEL1</t>
+  </si>
+  <si>
+    <t>FN1</t>
+  </si>
+  <si>
+    <t>EXPH5</t>
+  </si>
+  <si>
+    <t>ARID5B</t>
+  </si>
+  <si>
+    <t>AQP1</t>
+  </si>
+  <si>
+    <t>SGK1</t>
+  </si>
+  <si>
+    <t>NFX1</t>
+  </si>
+  <si>
+    <t>SERINC2</t>
+  </si>
+  <si>
+    <t>IER5</t>
+  </si>
+  <si>
+    <t>AGR2</t>
+  </si>
+  <si>
+    <t>NEB</t>
   </si>
   <si>
     <t>OSBPL10</t>
   </si>
   <si>
-    <t>MT1E</t>
-  </si>
-  <si>
-    <t>NAP1L4</t>
-  </si>
-  <si>
-    <t>HILPDA</t>
-  </si>
-  <si>
-    <t>HIBADH</t>
-  </si>
-  <si>
-    <t>CITED4</t>
-  </si>
-  <si>
-    <t>TTC33</t>
-  </si>
-  <si>
-    <t>TRAPPC5</t>
-  </si>
-  <si>
-    <t>CASP1</t>
-  </si>
-  <si>
-    <t>SLC39A11</t>
-  </si>
-  <si>
-    <t>KLK1</t>
-  </si>
-  <si>
-    <t>KANK4</t>
-  </si>
-  <si>
-    <t>DENND6B</t>
-  </si>
-  <si>
-    <t>CHI3L1</t>
-  </si>
-  <si>
-    <t>RAP2B</t>
-  </si>
-  <si>
-    <t>SLC44A3</t>
-  </si>
-  <si>
-    <t>CAMKMT</t>
-  </si>
-  <si>
-    <t>MTSS1L</t>
-  </si>
-  <si>
-    <t>PLAU</t>
-  </si>
-  <si>
-    <t>UNG</t>
-  </si>
-  <si>
-    <t>DIP2B</t>
-  </si>
-  <si>
-    <t>NFIB</t>
-  </si>
-  <si>
-    <t>CPB1</t>
-  </si>
-  <si>
-    <t>HUWE1</t>
-  </si>
-  <si>
-    <t>SSR1</t>
-  </si>
-  <si>
-    <t>TMX2-CTNND1</t>
-  </si>
-  <si>
-    <t>CYP4F11</t>
-  </si>
-  <si>
-    <t>ZNF629</t>
-  </si>
-  <si>
-    <t>NPTX2</t>
-  </si>
-  <si>
-    <t>ITGB2</t>
-  </si>
-  <si>
-    <t>ELOVL5</t>
-  </si>
-  <si>
-    <t>SEPHS1</t>
-  </si>
-  <si>
-    <t>MAGI1</t>
-  </si>
-  <si>
-    <t>SLC43A3</t>
-  </si>
-  <si>
-    <t>TMEM42</t>
-  </si>
-  <si>
-    <t>DOCK7</t>
-  </si>
-  <si>
-    <t>ZNF805</t>
-  </si>
-  <si>
-    <t>PRPF4</t>
-  </si>
-  <si>
-    <t>CXCL17</t>
-  </si>
-  <si>
-    <t>PRKCDBP</t>
-  </si>
-  <si>
-    <t>CELA2B</t>
-  </si>
-  <si>
-    <t>DDX49</t>
-  </si>
-  <si>
-    <t>C14orf93</t>
-  </si>
-  <si>
-    <t>HOOK3</t>
-  </si>
-  <si>
-    <t>RRM2</t>
-  </si>
-  <si>
-    <t>CD9</t>
-  </si>
-  <si>
-    <t>DCK</t>
-  </si>
-  <si>
-    <t>SNHG3</t>
-  </si>
-  <si>
-    <t>MEG3</t>
-  </si>
-  <si>
-    <t>SLK</t>
-  </si>
-  <si>
-    <t>G6PC3</t>
-  </si>
-  <si>
-    <t>NGFR</t>
-  </si>
-  <si>
-    <t>PTGS2</t>
-  </si>
-  <si>
-    <t>TMEM99</t>
-  </si>
-  <si>
-    <t>DIP2C</t>
-  </si>
-  <si>
-    <t>TAF1L</t>
-  </si>
-  <si>
-    <t>SLC12A2</t>
-  </si>
-  <si>
-    <t>AGR2</t>
-  </si>
-  <si>
-    <t>FAT3</t>
-  </si>
-  <si>
-    <t>KRT5</t>
-  </si>
-  <si>
-    <t>SEPT7</t>
-  </si>
-  <si>
-    <t>ICA1</t>
-  </si>
-  <si>
-    <t>FAM104A</t>
-  </si>
-  <si>
-    <t>LMO2</t>
-  </si>
-  <si>
-    <t>CDKN1A</t>
-  </si>
-  <si>
-    <t>FLT1</t>
-  </si>
-  <si>
-    <t>LARP4B</t>
-  </si>
-  <si>
-    <t>CCL2</t>
-  </si>
-  <si>
-    <t>UACA</t>
-  </si>
-  <si>
-    <t>MLLT4-AS1</t>
-  </si>
-  <si>
-    <t>AHR</t>
-  </si>
-  <si>
-    <t>THRB</t>
-  </si>
-  <si>
-    <t>OCIAD2</t>
-  </si>
-  <si>
-    <t>ZNF780A</t>
-  </si>
-  <si>
-    <t>DHX58</t>
-  </si>
-  <si>
-    <t>WDR46</t>
+    <t>TMEM131</t>
+  </si>
+  <si>
+    <t>TNFAIP3</t>
+  </si>
+  <si>
+    <t>MDP1</t>
+  </si>
+  <si>
+    <t>SLPI</t>
+  </si>
+  <si>
+    <t>ABCA7</t>
+  </si>
+  <si>
+    <t>ABCC5</t>
+  </si>
+  <si>
+    <t>KIAA0141</t>
+  </si>
+  <si>
+    <t>ARRDC3</t>
+  </si>
+  <si>
+    <t>BRAF</t>
   </si>
 </sst>
 </file>
@@ -324,13 +366,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2855670760684414</v>
+        <v>0.29507702220679377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0014354355182264569</v>
+        <v>4.159883710994989E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>6.546286978794536</v>
+        <v>7.784853252181477</v>
       </c>
     </row>
     <row r="3">
@@ -338,13 +380,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2279184272266781</v>
+        <v>-0.32582774927031305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00282916248288302</v>
+        <v>0.0012093472996290823</v>
       </c>
       <c r="D3" t="n">
-        <v>5.86777455357076</v>
+        <v>6.717674486707911</v>
       </c>
     </row>
     <row r="4">
@@ -352,13 +394,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.18515764656125264</v>
+        <v>0.3376138007162879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004714039838269803</v>
+        <v>0.0013365425053673008</v>
       </c>
       <c r="D4" t="n">
-        <v>5.357210023449643</v>
+        <v>6.617669219398839</v>
       </c>
     </row>
     <row r="5">
@@ -366,13 +408,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.20589732830324825</v>
+        <v>0.17474201349717253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004881469982513011</v>
+        <v>0.0015750172358798022</v>
       </c>
       <c r="D5" t="n">
-        <v>5.322308878551704</v>
+        <v>6.453489063348672</v>
       </c>
     </row>
     <row r="6">
@@ -380,13 +422,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.11903370643157582</v>
+        <v>-0.6006747979038172</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006994238475996233</v>
+        <v>0.0028459646259489345</v>
       </c>
       <c r="D6" t="n">
-        <v>4.962668543696595</v>
+        <v>5.8618532087842254</v>
       </c>
     </row>
     <row r="7">
@@ -394,13 +436,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2876387135881297</v>
+        <v>0.2951817415514084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0072052486535778976</v>
+        <v>0.0031705286507085666</v>
       </c>
       <c r="D7" t="n">
-        <v>4.932945538873147</v>
+        <v>5.753856938211945</v>
       </c>
     </row>
     <row r="8">
@@ -408,13 +450,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.4041264652502943</v>
+        <v>0.32705958075118646</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00814878434331535</v>
+        <v>0.003348987160184743</v>
       </c>
       <c r="D8" t="n">
-        <v>4.809886523184279</v>
+        <v>5.699097319102548</v>
       </c>
     </row>
     <row r="9">
@@ -422,13 +464,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.33307533394896394</v>
+        <v>-0.4319134122639333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008659011054512946</v>
+        <v>0.003574224651900994</v>
       </c>
       <c r="D9" t="n">
-        <v>4.749154759867219</v>
+        <v>5.634007006945296</v>
       </c>
     </row>
     <row r="10">
@@ -436,13 +478,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.09553107824879492</v>
+        <v>0.29740710472160886</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01038752872610702</v>
+        <v>0.003839009787190576</v>
       </c>
       <c r="D10" t="n">
-        <v>4.5671493533548615</v>
+        <v>5.562540813555271</v>
       </c>
     </row>
     <row r="11">
@@ -450,13 +492,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4056928800243268</v>
+        <v>0.24316731017996668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.010727493874946127</v>
+        <v>0.0038417397262486028</v>
       </c>
       <c r="D11" t="n">
-        <v>4.534945312066259</v>
+        <v>5.5618299612697735</v>
       </c>
     </row>
     <row r="12">
@@ -464,13 +506,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.25545064721889066</v>
+        <v>0.6685592082311527</v>
       </c>
       <c r="C12" t="n">
-        <v>0.011073240961492417</v>
+        <v>0.004705633856879139</v>
       </c>
       <c r="D12" t="n">
-        <v>4.503223805327789</v>
+        <v>5.35899479517191</v>
       </c>
     </row>
     <row r="13">
@@ -478,13 +520,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.04654798737533744</v>
+        <v>-0.3884183625286477</v>
       </c>
       <c r="C13" t="n">
-        <v>0.011561177364126068</v>
+        <v>0.007466790418691806</v>
       </c>
       <c r="D13" t="n">
-        <v>4.460102572816281</v>
+        <v>4.89729003499466</v>
       </c>
     </row>
     <row r="14">
@@ -492,13 +534,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.15751622104138702</v>
+        <v>-0.588145389028313</v>
       </c>
       <c r="C14" t="n">
-        <v>0.011568951981552748</v>
+        <v>0.008122252055923986</v>
       </c>
       <c r="D14" t="n">
-        <v>4.459430322557471</v>
+        <v>4.813147816473393</v>
       </c>
     </row>
     <row r="15">
@@ -506,13 +548,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.17066421486296762</v>
+        <v>0.4758573169204986</v>
       </c>
       <c r="C15" t="n">
-        <v>0.012433014542377458</v>
+        <v>0.008249926918864565</v>
       </c>
       <c r="D15" t="n">
-        <v>4.387399881352449</v>
+        <v>4.797550936994229</v>
       </c>
     </row>
     <row r="16">
@@ -520,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.985628501143091</v>
+        <v>0.3478901912018937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.013460487116607566</v>
+        <v>0.009692158574416328</v>
       </c>
       <c r="D16" t="n">
-        <v>4.307996765479269</v>
+        <v>4.636438114789817</v>
       </c>
     </row>
     <row r="17">
@@ -534,13 +576,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2850842462887758</v>
+        <v>0.3281577855067441</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01361294594305632</v>
+        <v>0.010642349255964365</v>
       </c>
       <c r="D17" t="n">
-        <v>4.296734031439167</v>
+        <v>4.5429140247067155</v>
       </c>
     </row>
     <row r="18">
@@ -548,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3971104718885352</v>
+        <v>-0.22529086182421143</v>
       </c>
       <c r="C18" t="n">
-        <v>0.014020623547654326</v>
+        <v>0.010945561477116103</v>
       </c>
       <c r="D18" t="n">
-        <v>4.267225922783082</v>
+        <v>4.514821249449545</v>
       </c>
     </row>
     <row r="19">
@@ -562,13 +604,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.26823232941469927</v>
+        <v>0.18654534962239125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01450620302262901</v>
+        <v>0.011213541986879533</v>
       </c>
       <c r="D19" t="n">
-        <v>4.233178926369588</v>
+        <v>4.490633125089648</v>
       </c>
     </row>
     <row r="20">
@@ -576,13 +618,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.23003190595937723</v>
+        <v>-0.22795750984465157</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01532004961095889</v>
+        <v>0.013972740749218034</v>
       </c>
       <c r="D20" t="n">
-        <v>4.178592876361692</v>
+        <v>4.270646936751072</v>
       </c>
     </row>
     <row r="21">
@@ -590,13 +632,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2996228509494708</v>
+        <v>0.38182571783380753</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01552395912049992</v>
+        <v>0.014830860777887972</v>
       </c>
       <c r="D21" t="n">
-        <v>4.165370698788664</v>
+        <v>4.211045081503378</v>
       </c>
     </row>
     <row r="22">
@@ -604,13 +646,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3596186178191656</v>
+        <v>0.5352578068960386</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01559539112136061</v>
+        <v>0.014962147086390973</v>
       </c>
       <c r="D22" t="n">
-        <v>4.16077984931634</v>
+        <v>4.202231794916498</v>
       </c>
     </row>
     <row r="23">
@@ -618,13 +660,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.35571863839648965</v>
+        <v>0.2036049931661833</v>
       </c>
       <c r="C23" t="n">
-        <v>0.015886282547288178</v>
+        <v>0.015340819061097055</v>
       </c>
       <c r="D23" t="n">
-        <v>4.1422992749991</v>
+        <v>4.177238090655059</v>
       </c>
     </row>
     <row r="24">
@@ -632,13 +674,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2995740907653368</v>
+        <v>0.09551521527739068</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0177137578147007</v>
+        <v>0.016013092579532047</v>
       </c>
       <c r="D24" t="n">
-        <v>4.03341366365949</v>
+        <v>4.134348605135245</v>
       </c>
     </row>
     <row r="25">
@@ -646,13 +688,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>0.11534910094605723</v>
+        <v>0.22908500849076052</v>
       </c>
       <c r="C25" t="n">
-        <v>0.017960967188397767</v>
+        <v>0.01630353972041279</v>
       </c>
       <c r="D25" t="n">
-        <v>4.019554365197393</v>
+        <v>4.116373033983884</v>
       </c>
     </row>
     <row r="26">
@@ -660,13 +702,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>0.19437837905584415</v>
+        <v>-0.17114618378427832</v>
       </c>
       <c r="C26" t="n">
-        <v>0.018974546812127072</v>
+        <v>0.017468295188134315</v>
       </c>
       <c r="D26" t="n">
-        <v>3.96465683940452</v>
+        <v>4.047367744707564</v>
       </c>
     </row>
     <row r="27">
@@ -674,13 +716,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>0.12529743503216906</v>
+        <v>0.22375489726996534</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01917014172158077</v>
+        <v>0.0185656166152124</v>
       </c>
       <c r="D27" t="n">
-        <v>3.9544013290681987</v>
+        <v>3.986443978049967</v>
       </c>
     </row>
     <row r="28">
@@ -688,13 +730,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.07442243847082287</v>
+        <v>0.2669218959427384</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01944157911734782</v>
+        <v>0.02058876381116299</v>
       </c>
       <c r="D28" t="n">
-        <v>3.9403412529326016</v>
+        <v>3.883009798056467</v>
       </c>
     </row>
     <row r="29">
@@ -702,13 +744,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5778872578773835</v>
+        <v>0.32801550078504527</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02137176890701749</v>
+        <v>0.021037293893496976</v>
       </c>
       <c r="D29" t="n">
-        <v>3.8456844378302724</v>
+        <v>3.861458516613764</v>
       </c>
     </row>
     <row r="30">
@@ -716,13 +758,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>0.28606271069004974</v>
+        <v>0.1493208883934264</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02520130719690444</v>
+        <v>0.02111655806919631</v>
       </c>
       <c r="D30" t="n">
-        <v>3.680859412917078</v>
+        <v>3.857697803633672</v>
       </c>
     </row>
     <row r="31">
@@ -730,13 +772,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09416096350441577</v>
+        <v>0.2671660024712287</v>
       </c>
       <c r="C31" t="n">
-        <v>0.025361102967030758</v>
+        <v>0.0216139836519669</v>
       </c>
       <c r="D31" t="n">
-        <v>3.6745386579680757</v>
+        <v>3.834414782464598</v>
       </c>
     </row>
     <row r="32">
@@ -744,13 +786,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.14227861334692748</v>
+        <v>-0.19798350618396576</v>
       </c>
       <c r="C32" t="n">
-        <v>0.025520606597558407</v>
+        <v>0.021632322398804915</v>
       </c>
       <c r="D32" t="n">
-        <v>3.6682690512912353</v>
+        <v>3.833566675441736</v>
       </c>
     </row>
     <row r="33">
@@ -758,13 +800,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2124456998294682</v>
+        <v>0.280656182119307</v>
       </c>
       <c r="C33" t="n">
-        <v>0.025618746904573348</v>
+        <v>0.02165817272952878</v>
       </c>
       <c r="D33" t="n">
-        <v>3.664430894538241</v>
+        <v>3.8323724024855257</v>
       </c>
     </row>
     <row r="34">
@@ -772,13 +814,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.24641045029626463</v>
+        <v>-0.18570102357639465</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02640369630945912</v>
+        <v>0.022473177035242715</v>
       </c>
       <c r="D34" t="n">
-        <v>3.6342512669086564</v>
+        <v>3.795432812693077</v>
       </c>
     </row>
     <row r="35">
@@ -786,13 +828,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.3056668839505241</v>
+        <v>0.1933408878954509</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02702974685953184</v>
+        <v>0.02251679735122134</v>
       </c>
       <c r="D35" t="n">
-        <v>3.610817283904788</v>
+        <v>3.793493699357639</v>
       </c>
     </row>
     <row r="36">
@@ -800,13 +842,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3092338526094276</v>
+        <v>0.15784796710754304</v>
       </c>
       <c r="C36" t="n">
-        <v>0.027580471613076137</v>
+        <v>0.02288316875711858</v>
       </c>
       <c r="D36" t="n">
-        <v>3.5906473069417117</v>
+        <v>3.777353627430727</v>
       </c>
     </row>
     <row r="37">
@@ -814,13 +856,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2361203269716705</v>
+        <v>0.2933227937879425</v>
       </c>
       <c r="C37" t="n">
-        <v>0.027728563812166058</v>
+        <v>0.023851259776096288</v>
       </c>
       <c r="D37" t="n">
-        <v>3.585292212539688</v>
+        <v>3.7359182422420734</v>
       </c>
     </row>
     <row r="38">
@@ -828,13 +870,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>0.37536294283872673</v>
+        <v>-0.18502891162094068</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02796834358249747</v>
+        <v>0.024686509277854814</v>
       </c>
       <c r="D38" t="n">
-        <v>3.5766819947411683</v>
+        <v>3.7014983676433206</v>
       </c>
     </row>
     <row r="39">
@@ -842,13 +884,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.32166341706266777</v>
+        <v>-0.3092961282346335</v>
       </c>
       <c r="C39" t="n">
-        <v>0.027972006652777746</v>
+        <v>0.024725639867694157</v>
       </c>
       <c r="D39" t="n">
-        <v>3.5765510313035027</v>
+        <v>3.69991452242727</v>
       </c>
     </row>
     <row r="40">
@@ -856,13 +898,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23761099193877766</v>
+        <v>-0.4365125554350173</v>
       </c>
       <c r="C40" t="n">
-        <v>0.027983529294031105</v>
+        <v>0.02482993695877329</v>
       </c>
       <c r="D40" t="n">
-        <v>3.576139181386555</v>
+        <v>3.6957052183789663</v>
       </c>
     </row>
     <row r="41">
@@ -870,13 +912,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.16198205469914195</v>
+        <v>0.3903941938759014</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02855991313088199</v>
+        <v>0.025278503821307034</v>
       </c>
       <c r="D41" t="n">
-        <v>3.555751183151164</v>
+        <v>3.67780089573868</v>
       </c>
     </row>
     <row r="42">
@@ -884,13 +926,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>0.11730433859915038</v>
+        <v>0.20221214321494696</v>
       </c>
       <c r="C42" t="n">
-        <v>0.028875725215868765</v>
+        <v>0.025546809830386916</v>
       </c>
       <c r="D42" t="n">
-        <v>3.544753994754491</v>
+        <v>3.6672428299955055</v>
       </c>
     </row>
     <row r="43">
@@ -898,13 +940,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>0.05147970190166243</v>
+        <v>0.2059906419382523</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02913584068231041</v>
+        <v>0.025989490076854572</v>
       </c>
       <c r="D43" t="n">
-        <v>3.535786224081906</v>
+        <v>3.6500630504960268</v>
       </c>
     </row>
     <row r="44">
@@ -912,13 +954,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>0.15204192005660114</v>
+        <v>0.18246078494725337</v>
       </c>
       <c r="C44" t="n">
-        <v>0.030952289478817632</v>
+        <v>0.026574050098014883</v>
       </c>
       <c r="D44" t="n">
-        <v>3.475308309119982</v>
+        <v>3.627820099588077</v>
       </c>
     </row>
     <row r="45">
@@ -926,13 +968,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.19792798302083636</v>
+        <v>0.3987477064694999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.031539287821484165</v>
+        <v>0.02763777629772514</v>
       </c>
       <c r="D45" t="n">
-        <v>3.4565212778707233</v>
+        <v>3.588571735644559</v>
       </c>
     </row>
     <row r="46">
@@ -940,13 +982,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.19530841852713876</v>
+        <v>0.3904549985561734</v>
       </c>
       <c r="C46" t="n">
-        <v>0.03200961128070744</v>
+        <v>0.028016193927993545</v>
       </c>
       <c r="D46" t="n">
-        <v>3.441719068757092</v>
+        <v>3.5749725814182827</v>
       </c>
     </row>
     <row r="47">
@@ -954,13 +996,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.13675997307840346</v>
+        <v>0.38106926187613677</v>
       </c>
       <c r="C47" t="n">
-        <v>0.032552695801301434</v>
+        <v>0.028342547813561974</v>
       </c>
       <c r="D47" t="n">
-        <v>3.4248950934404916</v>
+        <v>3.5633911470822532</v>
       </c>
     </row>
     <row r="48">
@@ -968,13 +1010,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.20619437738127933</v>
+        <v>-0.07910440805947955</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03266197873293766</v>
+        <v>0.028894470412471486</v>
       </c>
       <c r="D48" t="n">
-        <v>3.421543607453336</v>
+        <v>3.544105037379266</v>
       </c>
     </row>
     <row r="49">
@@ -982,13 +1024,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2125811128402653</v>
+        <v>0.1747025862283436</v>
       </c>
       <c r="C49" t="n">
-        <v>0.03448292286669374</v>
+        <v>0.02896629345570142</v>
       </c>
       <c r="D49" t="n">
-        <v>3.3672910668636993</v>
+        <v>3.541622419614902</v>
       </c>
     </row>
     <row r="50">
@@ -996,13 +1038,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.2267514459002437</v>
+        <v>-0.27341120690107323</v>
       </c>
       <c r="C50" t="n">
-        <v>0.03486453088797018</v>
+        <v>0.029275253091581206</v>
       </c>
       <c r="D50" t="n">
-        <v>3.356285273498775</v>
+        <v>3.5310127242212532</v>
       </c>
     </row>
     <row r="51">
@@ -1010,13 +1052,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.15112999202172947</v>
+        <v>0.4031385344997893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.035123905523442994</v>
+        <v>0.029802327275487067</v>
       </c>
       <c r="D51" t="n">
-        <v>3.348873311288626</v>
+        <v>3.513168792027296</v>
       </c>
     </row>
     <row r="52">
@@ -1024,13 +1066,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21531353201190262</v>
+        <v>0.05542103222237443</v>
       </c>
       <c r="C52" t="n">
-        <v>0.036026580490710954</v>
+        <v>0.031160881881867195</v>
       </c>
       <c r="D52" t="n">
-        <v>3.3234982660058563</v>
+        <v>3.468591756651347</v>
       </c>
     </row>
     <row r="53">
@@ -1038,13 +1080,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1831464272163763</v>
+        <v>-0.30344878713477247</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03620756811704858</v>
+        <v>0.03119436977727813</v>
       </c>
       <c r="D53" t="n">
-        <v>3.318487117994379</v>
+        <v>3.4675176563072876</v>
       </c>
     </row>
     <row r="54">
@@ -1052,13 +1094,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.15480963337533893</v>
+        <v>-0.14140372443504948</v>
       </c>
       <c r="C54" t="n">
-        <v>0.036349287787236687</v>
+        <v>0.03158855915229702</v>
       </c>
       <c r="D54" t="n">
-        <v>3.3145806683929986</v>
+        <v>3.454960276088471</v>
       </c>
     </row>
     <row r="55">
@@ -1066,13 +1108,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03528519656579451</v>
+        <v>-0.1911028088707435</v>
       </c>
       <c r="C55" t="n">
-        <v>0.03670310879476605</v>
+        <v>0.031818292202556955</v>
       </c>
       <c r="D55" t="n">
-        <v>3.3048938192049064</v>
+        <v>3.4477139280798474</v>
       </c>
     </row>
     <row r="56">
@@ -1080,13 +1122,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>0.22367033998499516</v>
+        <v>-0.22331468947231703</v>
       </c>
       <c r="C56" t="n">
-        <v>0.03743784822797384</v>
+        <v>0.03297233783224905</v>
       </c>
       <c r="D56" t="n">
-        <v>3.2850731015677894</v>
+        <v>3.412086316549161</v>
       </c>
     </row>
     <row r="57">
@@ -1094,13 +1136,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1863986028178219</v>
+        <v>-0.3411731649682197</v>
       </c>
       <c r="C57" t="n">
-        <v>0.03773931861032588</v>
+        <v>0.033182952976951605</v>
       </c>
       <c r="D57" t="n">
-        <v>3.2770527940450553</v>
+        <v>3.405718999477408</v>
       </c>
     </row>
     <row r="58">
@@ -1108,13 +1150,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.35716152001383045</v>
+        <v>0.101090105426199</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03832197946671886</v>
+        <v>0.033529233179134574</v>
       </c>
       <c r="D58" t="n">
-        <v>3.261731670983999</v>
+        <v>3.395337588460279</v>
       </c>
     </row>
     <row r="59">
@@ -1122,13 +1164,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.342887546234532</v>
+        <v>0.22278569554382954</v>
       </c>
       <c r="C59" t="n">
-        <v>0.03837924370417504</v>
+        <v>0.034124169148713676</v>
       </c>
       <c r="D59" t="n">
-        <v>3.2602384940637776</v>
+        <v>3.377749373063855</v>
       </c>
     </row>
     <row r="60">
@@ -1136,13 +1178,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>0.619737500219416</v>
+        <v>0.3482888397180811</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03839831747004736</v>
+        <v>0.03432704275652022</v>
       </c>
       <c r="D60" t="n">
-        <v>3.259741636232583</v>
+        <v>3.371821816891448</v>
       </c>
     </row>
     <row r="61">
@@ -1150,13 +1192,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>0.323857622888853</v>
+        <v>-0.233975233527709</v>
       </c>
       <c r="C61" t="n">
-        <v>0.03958163899129178</v>
+        <v>0.03549964227498942</v>
       </c>
       <c r="D61" t="n">
-        <v>3.2293899300821556</v>
+        <v>3.3382326593123994</v>
       </c>
     </row>
     <row r="62">
@@ -1164,13 +1206,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.379109878163292</v>
+        <v>-0.3556781771048068</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04088188422873479</v>
+        <v>0.03603182711600477</v>
       </c>
       <c r="D62" t="n">
-        <v>3.197068242447929</v>
+        <v>3.323352644544674</v>
       </c>
     </row>
     <row r="63">
@@ -1178,13 +1220,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>0.17605323206527967</v>
+        <v>0.15877343370702215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.041134185993522976</v>
+        <v>0.03604994354104224</v>
       </c>
       <c r="D63" t="n">
-        <v>3.1909157272157755</v>
+        <v>3.322849981381608</v>
       </c>
     </row>
     <row r="64">
@@ -1192,13 +1234,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>0.13622537869873835</v>
+        <v>0.05277867385028168</v>
       </c>
       <c r="C64" t="n">
-        <v>0.04117138825570136</v>
+        <v>0.03617070394715148</v>
       </c>
       <c r="D64" t="n">
-        <v>3.1900117236886443</v>
+        <v>3.319505771024727</v>
       </c>
     </row>
     <row r="65">
@@ -1206,13 +1248,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>0.18769271218411174</v>
+        <v>-0.1477531065356057</v>
       </c>
       <c r="C65" t="n">
-        <v>0.041203665325978765</v>
+        <v>0.036332257102658916</v>
       </c>
       <c r="D65" t="n">
-        <v>3.1892280623609524</v>
+        <v>3.3150493068875506</v>
       </c>
     </row>
     <row r="66">
@@ -1220,13 +1262,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>0.20258798376428708</v>
+        <v>-0.19358187038802888</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04150576965981755</v>
+        <v>0.03665186037087015</v>
       </c>
       <c r="D66" t="n">
-        <v>3.181922833461563</v>
+        <v>3.306291091477441</v>
       </c>
     </row>
     <row r="67">
@@ -1234,13 +1276,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>0.23078404937789565</v>
+        <v>0.2946283826428764</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0419493713734991</v>
+        <v>0.03725927477133082</v>
       </c>
       <c r="D67" t="n">
-        <v>3.1712918313182894</v>
+        <v>3.289854377998904</v>
       </c>
     </row>
     <row r="68">
@@ -1248,13 +1290,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0825938548681871</v>
+        <v>0.11189219911740922</v>
       </c>
       <c r="C68" t="n">
-        <v>0.042336835720439454</v>
+        <v>0.037964237984299015</v>
       </c>
       <c r="D68" t="n">
-        <v>3.162097751060199</v>
+        <v>3.271110668050076</v>
       </c>
     </row>
     <row r="69">
@@ -1262,13 +1304,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>0.20527504636677724</v>
+        <v>0.22622870413788532</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04314780482549266</v>
+        <v>0.03823800260083233</v>
       </c>
       <c r="D69" t="n">
-        <v>3.143123735852397</v>
+        <v>3.263925425404972</v>
       </c>
     </row>
     <row r="70">
@@ -1276,13 +1318,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.4072608634267212</v>
+        <v>0.2423368547603766</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04385641952616144</v>
+        <v>0.03849577394955983</v>
       </c>
       <c r="D70" t="n">
-        <v>3.1268341734750895</v>
+        <v>3.2572068112571966</v>
       </c>
     </row>
     <row r="71">
@@ -1290,13 +1332,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2716417479908704</v>
+        <v>-0.14213900900674148</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04395193831013003</v>
+        <v>0.03918694816261261</v>
       </c>
       <c r="D71" t="n">
-        <v>3.1246585532038744</v>
+        <v>3.2394115426629475</v>
       </c>
     </row>
     <row r="72">
@@ -1304,13 +1346,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.5944112952587737</v>
+        <v>0.13015419483747107</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04430018447644979</v>
+        <v>0.039800080277143476</v>
       </c>
       <c r="D72" t="n">
-        <v>3.116766437685772</v>
+        <v>3.223886349680124</v>
       </c>
     </row>
     <row r="73">
@@ -1318,13 +1360,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>0.3642270055792831</v>
+        <v>0.2229220688360622</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04437459439625947</v>
+        <v>0.04009980346290264</v>
       </c>
       <c r="D73" t="n">
-        <v>3.1150881715943144</v>
+        <v>3.216383845856122</v>
       </c>
     </row>
     <row r="74">
@@ -1332,13 +1374,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.1505380784565557</v>
+        <v>0.29044756208950595</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04440310327972518</v>
+        <v>0.041337695223837616</v>
       </c>
       <c r="D74" t="n">
-        <v>3.114445918298904</v>
+        <v>3.1859804780040926</v>
       </c>
     </row>
     <row r="75">
@@ -1346,13 +1388,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>0.19419643713613488</v>
+        <v>-0.2267038762077409</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04509045791553421</v>
+        <v>0.04172396193844728</v>
       </c>
       <c r="D75" t="n">
-        <v>3.099084631011131</v>
+        <v>3.1766796883908763</v>
       </c>
     </row>
     <row r="76">
@@ -1360,13 +1402,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>0.31816341657683567</v>
+        <v>-0.5220396926907713</v>
       </c>
       <c r="C76" t="n">
-        <v>0.04553026088082418</v>
+        <v>0.042666800153497844</v>
       </c>
       <c r="D76" t="n">
-        <v>3.0893780997853084</v>
+        <v>3.154334175137918</v>
       </c>
     </row>
     <row r="77">
@@ -1374,13 +1416,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>0.33997670547017567</v>
+        <v>0.2609932539316849</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04742559671490373</v>
+        <v>0.044202412664625226</v>
       </c>
       <c r="D77" t="n">
-        <v>3.0485931809544224</v>
+        <v>3.1189759062156845</v>
       </c>
     </row>
     <row r="78">
@@ -1388,13 +1430,209 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0723364305559469</v>
+        <v>-0.2634270411898513</v>
       </c>
       <c r="C78" t="n">
-        <v>0.04949656658066743</v>
+        <v>0.044265332526113275</v>
       </c>
       <c r="D78" t="n">
-        <v>3.0058519738198664</v>
+        <v>3.117553469779414</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1530507025089253</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.04435328303618088</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3.1155685473478005</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2496362318864695</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.044839967132136685</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.104655413781643</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.600614303617547</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.04484992268357921</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3.1044334143677985</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="n">
+        <v>-0.5049266188915054</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.04491838945940085</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.1029080032853504</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="n">
+        <v>-0.1533142705008666</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.04585527102470088</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3.0822651245165367</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="n">
+        <v>-0.2258303757506548</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.04655381577547483</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.0671463070723615</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.31452529793078055</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.04697500386570312</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3.058139651389836</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.050995793281439605</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.047163925080552824</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3.0541259777569536</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.443769903748104</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.047321495199541264</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3.0507906427477036</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-0.03796292082318714</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.04774514813628401</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.0418778269293436</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.1875576413816439</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.04830928211929275</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.030131560404253</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.2270238659573049</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.04831342628757677</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.030045779983586</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.18588887053357336</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.0496715854463801</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.0023222307753556</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.12733467429314052</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.04990415635918059</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.9976509859222435</v>
       </c>
     </row>
   </sheetData>
